--- a/Financials/Yearly/EONGY_YR_FIN.xlsx
+++ b/Financials/Yearly/EONGY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B7589B-4D47-42A6-A4A7-61174177C503}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EONGY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>EONGY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,142 +689,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>44563700</v>
+        <v>33171600</v>
       </c>
       <c r="E8" s="3">
-        <v>44807800</v>
+        <v>41846900</v>
       </c>
       <c r="F8" s="3">
-        <v>50070000</v>
+        <v>42829700</v>
       </c>
       <c r="G8" s="3">
-        <v>132752000</v>
+        <v>47859600</v>
       </c>
       <c r="H8" s="3">
-        <v>140491000</v>
+        <v>126891500</v>
       </c>
       <c r="I8" s="3">
-        <v>155052100</v>
+        <v>134288700</v>
       </c>
       <c r="J8" s="3">
+        <v>148207000</v>
+      </c>
+      <c r="K8" s="3">
         <v>132586500</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>34345700</v>
+        <v>25135900</v>
       </c>
       <c r="E9" s="3">
-        <v>37313100</v>
+        <v>33035900</v>
       </c>
       <c r="F9" s="3">
-        <v>38346000</v>
+        <v>35665800</v>
       </c>
       <c r="G9" s="3">
-        <v>116949000</v>
+        <v>36653200</v>
       </c>
       <c r="H9" s="3">
-        <v>123692600</v>
+        <v>111786100</v>
       </c>
       <c r="I9" s="3">
-        <v>134803900</v>
+        <v>118231900</v>
       </c>
       <c r="J9" s="3">
+        <v>128852700</v>
+      </c>
+      <c r="K9" s="3">
         <v>114239900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10218000</v>
+        <v>8035700</v>
       </c>
       <c r="E10" s="3">
-        <v>7494800</v>
+        <v>8811000</v>
       </c>
       <c r="F10" s="3">
-        <v>11724000</v>
+        <v>7163900</v>
       </c>
       <c r="G10" s="3">
-        <v>15803000</v>
+        <v>11206400</v>
       </c>
       <c r="H10" s="3">
-        <v>16798400</v>
+        <v>15105400</v>
       </c>
       <c r="I10" s="3">
-        <v>20248200</v>
+        <v>16056800</v>
       </c>
       <c r="J10" s="3">
+        <v>19354300</v>
+      </c>
+      <c r="K10" s="3">
         <v>18346700</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +848,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -815,21 +863,24 @@
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
-        <v>57500</v>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>83300</v>
+        <v>55000</v>
       </c>
       <c r="I12" s="3">
-        <v>51600</v>
-      </c>
-      <c r="J12" s="3" t="s">
+        <v>79700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,63 +905,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>72800</v>
+        <v>33700</v>
       </c>
       <c r="E14" s="3">
-        <v>111500</v>
+        <v>71800</v>
       </c>
       <c r="F14" s="3">
-        <v>81000</v>
+        <v>106600</v>
       </c>
       <c r="G14" s="3">
-        <v>106800</v>
+        <v>77400</v>
       </c>
       <c r="H14" s="3">
-        <v>103300</v>
+        <v>102100</v>
       </c>
       <c r="I14" s="3">
-        <v>-335700</v>
+        <v>98700</v>
       </c>
       <c r="J14" s="3">
+        <v>-320900</v>
+      </c>
+      <c r="K14" s="3">
         <v>192500</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3250300</v>
+        <v>1767100</v>
       </c>
       <c r="E15" s="3">
-        <v>4487500</v>
+        <v>1907400</v>
       </c>
       <c r="F15" s="3">
-        <v>6654300</v>
+        <v>4289400</v>
       </c>
       <c r="G15" s="3">
-        <v>10239100</v>
+        <v>6360600</v>
       </c>
       <c r="H15" s="3">
-        <v>6109700</v>
+        <v>9787100</v>
       </c>
       <c r="I15" s="3">
-        <v>5960600</v>
+        <v>5840000</v>
       </c>
       <c r="J15" s="3">
+        <v>5697500</v>
+      </c>
+      <c r="K15" s="3">
         <v>8311700</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,62 +979,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>39161800</v>
+        <v>28770100</v>
       </c>
       <c r="E17" s="3">
-        <v>45401800</v>
+        <v>36385000</v>
       </c>
       <c r="F17" s="3">
-        <v>50165100</v>
+        <v>43397500</v>
       </c>
       <c r="G17" s="3">
-        <v>133566700</v>
+        <v>47950500</v>
       </c>
       <c r="H17" s="3">
-        <v>134641900</v>
+        <v>127670100</v>
       </c>
       <c r="I17" s="3">
-        <v>149654900</v>
+        <v>128697900</v>
       </c>
       <c r="J17" s="3">
+        <v>143048100</v>
+      </c>
+      <c r="K17" s="3">
         <v>133695800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5401900</v>
+        <v>4401600</v>
       </c>
       <c r="E18" s="3">
-        <v>-593900</v>
+        <v>5461800</v>
       </c>
       <c r="F18" s="3">
-        <v>-95100</v>
+        <v>-567700</v>
       </c>
       <c r="G18" s="3">
-        <v>-814600</v>
+        <v>-90900</v>
       </c>
       <c r="H18" s="3">
-        <v>5849100</v>
+        <v>-778700</v>
       </c>
       <c r="I18" s="3">
-        <v>5397200</v>
+        <v>5590900</v>
       </c>
       <c r="J18" s="3">
+        <v>5158900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1109300</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,143 +1053,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>855700</v>
+        <v>-51600</v>
       </c>
       <c r="E20" s="3">
-        <v>-809900</v>
+        <v>908800</v>
       </c>
       <c r="F20" s="3">
-        <v>-645600</v>
+        <v>-774200</v>
       </c>
       <c r="G20" s="3">
-        <v>-744200</v>
+        <v>-617100</v>
       </c>
       <c r="H20" s="3">
-        <v>-863900</v>
+        <v>-711300</v>
       </c>
       <c r="I20" s="3">
-        <v>2300700</v>
+        <v>-825800</v>
       </c>
       <c r="J20" s="3">
+        <v>2199100</v>
+      </c>
+      <c r="K20" s="3">
         <v>805200</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9510100</v>
+        <v>6121300</v>
       </c>
       <c r="E21" s="3">
-        <v>3086700</v>
+        <v>8282600</v>
       </c>
       <c r="F21" s="3">
-        <v>5918200</v>
+        <v>2957800</v>
       </c>
       <c r="G21" s="3">
-        <v>8687300</v>
+        <v>5667900</v>
       </c>
       <c r="H21" s="3">
-        <v>11099000</v>
+        <v>8320700</v>
       </c>
       <c r="I21" s="3">
-        <v>13662500</v>
+        <v>10619100</v>
       </c>
       <c r="J21" s="3">
+        <v>13069200</v>
+      </c>
+      <c r="K21" s="3">
         <v>8013400</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>834600</v>
+        <v>665300</v>
       </c>
       <c r="E22" s="3">
-        <v>620900</v>
+        <v>805600</v>
       </c>
       <c r="F22" s="3">
-        <v>1010700</v>
+        <v>593500</v>
       </c>
       <c r="G22" s="3">
-        <v>1256000</v>
+        <v>966000</v>
       </c>
       <c r="H22" s="3">
-        <v>1371000</v>
+        <v>1200500</v>
       </c>
       <c r="I22" s="3">
-        <v>3854800</v>
+        <v>1310500</v>
       </c>
       <c r="J22" s="3">
+        <v>3684600</v>
+      </c>
+      <c r="K22" s="3">
         <v>3112900</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5423000</v>
+        <v>3684600</v>
       </c>
       <c r="E23" s="3">
-        <v>-2024800</v>
+        <v>5565100</v>
       </c>
       <c r="F23" s="3">
-        <v>-1751300</v>
+        <v>-1935400</v>
       </c>
       <c r="G23" s="3">
-        <v>-2814800</v>
+        <v>-1674000</v>
       </c>
       <c r="H23" s="3">
-        <v>3614200</v>
+        <v>-2690500</v>
       </c>
       <c r="I23" s="3">
-        <v>3843100</v>
+        <v>3454600</v>
       </c>
       <c r="J23" s="3">
+        <v>3673400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3417000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>516500</v>
+        <v>51600</v>
       </c>
       <c r="E24" s="3">
-        <v>516500</v>
+        <v>901000</v>
       </c>
       <c r="F24" s="3">
-        <v>854500</v>
+        <v>493700</v>
       </c>
       <c r="G24" s="3">
-        <v>669100</v>
+        <v>816800</v>
       </c>
       <c r="H24" s="3">
-        <v>842800</v>
+        <v>639500</v>
       </c>
       <c r="I24" s="3">
-        <v>819300</v>
+        <v>805600</v>
       </c>
       <c r="J24" s="3">
+        <v>783100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1216100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,63 +1230,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4906500</v>
+        <v>3633000</v>
       </c>
       <c r="E26" s="3">
-        <v>-2541300</v>
+        <v>4664100</v>
       </c>
       <c r="F26" s="3">
-        <v>-2605900</v>
+        <v>-2429100</v>
       </c>
       <c r="G26" s="3">
-        <v>-3483900</v>
+        <v>-2490800</v>
       </c>
       <c r="H26" s="3">
-        <v>2771400</v>
+        <v>-3330100</v>
       </c>
       <c r="I26" s="3">
-        <v>3023700</v>
+        <v>2649000</v>
       </c>
       <c r="J26" s="3">
+        <v>2890200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2200900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4607200</v>
+        <v>3295300</v>
       </c>
       <c r="E27" s="3">
-        <v>6329200</v>
+        <v>4378000</v>
       </c>
       <c r="F27" s="3">
-        <v>-3336000</v>
+        <v>6049800</v>
       </c>
       <c r="G27" s="3">
-        <v>-3519100</v>
+        <v>-3188700</v>
       </c>
       <c r="H27" s="3">
-        <v>2339400</v>
+        <v>-3363700</v>
       </c>
       <c r="I27" s="3">
-        <v>2526000</v>
+        <v>2236100</v>
       </c>
       <c r="J27" s="3">
+        <v>2414500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2621100</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,36 +1320,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>320900</v>
       </c>
       <c r="E29" s="3">
-        <v>-16247900</v>
+        <v>25800</v>
       </c>
       <c r="F29" s="3">
-        <v>-4879500</v>
+        <v>-15530600</v>
       </c>
       <c r="G29" s="3">
-        <v>-190200</v>
+        <v>-4664100</v>
       </c>
       <c r="H29" s="3">
-        <v>115000</v>
+        <v>-181800</v>
       </c>
       <c r="I29" s="3">
-        <v>43400</v>
+        <v>110000</v>
       </c>
       <c r="J29" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K29" s="3">
         <v>16400</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1380,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,63 +1410,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-855700</v>
+        <v>51600</v>
       </c>
       <c r="E32" s="3">
-        <v>809900</v>
+        <v>-908800</v>
       </c>
       <c r="F32" s="3">
-        <v>645600</v>
+        <v>774200</v>
       </c>
       <c r="G32" s="3">
-        <v>744200</v>
+        <v>617100</v>
       </c>
       <c r="H32" s="3">
-        <v>863900</v>
+        <v>711300</v>
       </c>
       <c r="I32" s="3">
-        <v>-2300700</v>
+        <v>825800</v>
       </c>
       <c r="J32" s="3">
+        <v>-2199100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-805200</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4607200</v>
+        <v>3616200</v>
       </c>
       <c r="E33" s="3">
-        <v>-9918700</v>
+        <v>4403800</v>
       </c>
       <c r="F33" s="3">
-        <v>-8215500</v>
+        <v>-9480800</v>
       </c>
       <c r="G33" s="3">
-        <v>-3709200</v>
+        <v>-7852800</v>
       </c>
       <c r="H33" s="3">
-        <v>2454400</v>
+        <v>-3545500</v>
       </c>
       <c r="I33" s="3">
-        <v>2569500</v>
+        <v>2346100</v>
       </c>
       <c r="J33" s="3">
+        <v>2456000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2604700</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,68 +1500,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4607200</v>
+        <v>3616200</v>
       </c>
       <c r="E35" s="3">
-        <v>-9918700</v>
+        <v>4403800</v>
       </c>
       <c r="F35" s="3">
-        <v>-8215500</v>
+        <v>-9480800</v>
       </c>
       <c r="G35" s="3">
-        <v>-3709200</v>
+        <v>-7852800</v>
       </c>
       <c r="H35" s="3">
-        <v>2454400</v>
+        <v>-3545500</v>
       </c>
       <c r="I35" s="3">
-        <v>2569500</v>
+        <v>2346100</v>
       </c>
       <c r="J35" s="3">
+        <v>2456000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2604700</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1582,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,251 +1596,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3965100</v>
+        <v>4402700</v>
       </c>
       <c r="E41" s="3">
-        <v>9063000</v>
+        <v>3038300</v>
       </c>
       <c r="F41" s="3">
-        <v>8530100</v>
+        <v>6254000</v>
       </c>
       <c r="G41" s="3">
-        <v>5872600</v>
+        <v>5822000</v>
       </c>
       <c r="H41" s="3">
-        <v>8422100</v>
+        <v>3580300</v>
       </c>
       <c r="I41" s="3">
-        <v>7743600</v>
+        <v>5079200</v>
       </c>
       <c r="J41" s="3">
+        <v>3159500</v>
+      </c>
+      <c r="K41" s="3">
         <v>4521500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>868400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>751700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2408900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2331500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2033000</v>
       </c>
       <c r="I42" s="3">
-        <v>3851300</v>
+        <v>2971000</v>
       </c>
       <c r="J42" s="3">
+        <v>7923500</v>
+      </c>
+      <c r="K42" s="3">
         <v>3614200</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5433600</v>
+        <v>4950200</v>
       </c>
       <c r="E43" s="3">
-        <v>9429200</v>
+        <v>5193700</v>
       </c>
       <c r="F43" s="3">
-        <v>33047400</v>
+        <v>9012900</v>
       </c>
       <c r="G43" s="3">
-        <v>32200000</v>
+        <v>31588500</v>
       </c>
       <c r="H43" s="3">
-        <v>53822700</v>
+        <v>30778400</v>
       </c>
       <c r="I43" s="3">
-        <v>88966600</v>
+        <v>51446600</v>
       </c>
       <c r="J43" s="3">
+        <v>85039000</v>
+      </c>
+      <c r="K43" s="3">
         <v>40375500</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>932000</v>
+        <v>767400</v>
       </c>
       <c r="E44" s="3">
-        <v>921400</v>
+        <v>890900</v>
       </c>
       <c r="F44" s="3">
-        <v>2988500</v>
+        <v>880800</v>
       </c>
       <c r="G44" s="3">
-        <v>3939300</v>
+        <v>2856600</v>
       </c>
       <c r="H44" s="3">
-        <v>9735600</v>
+        <v>3765400</v>
       </c>
       <c r="I44" s="3">
-        <v>11114800</v>
+        <v>9305800</v>
       </c>
       <c r="J44" s="3">
+        <v>10624100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5667200</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8199100</v>
+        <v>15311800</v>
       </c>
       <c r="E45" s="3">
-        <v>1014200</v>
+        <v>7837100</v>
       </c>
       <c r="F45" s="3">
-        <v>2481400</v>
+        <v>969400</v>
       </c>
       <c r="G45" s="3">
-        <v>8021800</v>
+        <v>2371900</v>
       </c>
       <c r="H45" s="3">
-        <v>1960300</v>
+        <v>7667700</v>
       </c>
       <c r="I45" s="3">
-        <v>11117200</v>
+        <v>1873700</v>
       </c>
       <c r="J45" s="3">
+        <v>10626400</v>
+      </c>
+      <c r="K45" s="3">
         <v>5276300</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18529800</v>
+        <v>26300600</v>
       </c>
       <c r="E46" s="3">
-        <v>20427800</v>
+        <v>17711700</v>
       </c>
       <c r="F46" s="3">
-        <v>47047500</v>
+        <v>19526000</v>
       </c>
       <c r="G46" s="3">
-        <v>50033700</v>
+        <v>44970500</v>
       </c>
       <c r="H46" s="3">
-        <v>43137500</v>
+        <v>47824800</v>
       </c>
       <c r="I46" s="3">
-        <v>52727500</v>
+        <v>41233100</v>
       </c>
       <c r="J46" s="3">
+        <v>50399800</v>
+      </c>
+      <c r="K46" s="3">
         <v>59454700</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8850500</v>
+        <v>6673600</v>
       </c>
       <c r="E47" s="3">
-        <v>16223200</v>
+        <v>8459800</v>
       </c>
       <c r="F47" s="3">
-        <v>23021900</v>
+        <v>15507000</v>
       </c>
       <c r="G47" s="3">
-        <v>22215500</v>
+        <v>22005600</v>
       </c>
       <c r="H47" s="3">
-        <v>22135700</v>
+        <v>21234800</v>
       </c>
       <c r="I47" s="3">
-        <v>32704700</v>
+        <v>21158500</v>
       </c>
       <c r="J47" s="3">
+        <v>31260900</v>
+      </c>
+      <c r="K47" s="3">
         <v>23176900</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29070600</v>
+        <v>20259800</v>
       </c>
       <c r="E48" s="3">
-        <v>29629300</v>
+        <v>27787200</v>
       </c>
       <c r="F48" s="3">
-        <v>45775100</v>
+        <v>28321300</v>
       </c>
       <c r="G48" s="3">
-        <v>48446700</v>
+        <v>43754200</v>
       </c>
       <c r="H48" s="3">
-        <v>117576000</v>
+        <v>46307900</v>
       </c>
       <c r="I48" s="3">
-        <v>6218800</v>
+        <v>112385000</v>
       </c>
       <c r="J48" s="3">
+        <v>5944300</v>
+      </c>
+      <c r="K48" s="3">
         <v>65579600</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6549900</v>
+        <v>4730300</v>
       </c>
       <c r="E49" s="3">
-        <v>6798700</v>
+        <v>6260700</v>
       </c>
       <c r="F49" s="3">
-        <v>12801600</v>
+        <v>6498600</v>
       </c>
       <c r="G49" s="3">
-        <v>19595600</v>
+        <v>12236400</v>
       </c>
       <c r="H49" s="3">
-        <v>45341900</v>
+        <v>18730500</v>
       </c>
       <c r="I49" s="3">
-        <v>61004100</v>
+        <v>43340200</v>
       </c>
       <c r="J49" s="3">
+        <v>58310900</v>
+      </c>
+      <c r="K49" s="3">
         <v>25184100</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1893,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,36 +1923,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2673900</v>
+        <v>2986700</v>
       </c>
       <c r="E52" s="3">
-        <v>1691500</v>
+        <v>2555900</v>
       </c>
       <c r="F52" s="3">
-        <v>4807900</v>
+        <v>1616800</v>
       </c>
       <c r="G52" s="3">
-        <v>7244800</v>
+        <v>4595700</v>
       </c>
       <c r="H52" s="3">
-        <v>8598200</v>
+        <v>6924900</v>
       </c>
       <c r="I52" s="3">
-        <v>6434800</v>
+        <v>8218600</v>
       </c>
       <c r="J52" s="3">
+        <v>6150700</v>
+      </c>
+      <c r="K52" s="3">
         <v>6047500</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,36 +1983,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>65674700</v>
+        <v>60951000</v>
       </c>
       <c r="E54" s="3">
-        <v>74770500</v>
+        <v>62775300</v>
       </c>
       <c r="F54" s="3">
-        <v>133454000</v>
+        <v>71469600</v>
       </c>
       <c r="G54" s="3">
-        <v>147536000</v>
+        <v>127562000</v>
       </c>
       <c r="H54" s="3">
-        <v>155330000</v>
+        <v>141023000</v>
       </c>
       <c r="I54" s="3">
-        <v>167016000</v>
+        <v>148473000</v>
       </c>
       <c r="J54" s="3">
+        <v>159642000</v>
+      </c>
+      <c r="K54" s="3">
         <v>179443000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +2030,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,170 +2044,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2112900</v>
+        <v>1862500</v>
       </c>
       <c r="E57" s="3">
-        <v>2394600</v>
+        <v>2019600</v>
       </c>
       <c r="F57" s="3">
-        <v>2787800</v>
+        <v>2288900</v>
       </c>
       <c r="G57" s="3">
-        <v>2564800</v>
+        <v>2664700</v>
       </c>
       <c r="H57" s="3">
-        <v>2916900</v>
+        <v>2451500</v>
       </c>
       <c r="I57" s="3">
-        <v>6407800</v>
-      </c>
-      <c r="J57" s="3" t="s">
+        <v>2788100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6124900</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3637600</v>
+        <v>1753700</v>
       </c>
       <c r="E58" s="3">
-        <v>4451100</v>
+        <v>3477000</v>
       </c>
       <c r="F58" s="3">
-        <v>3272600</v>
+        <v>4254600</v>
       </c>
       <c r="G58" s="3">
-        <v>4557900</v>
+        <v>3128100</v>
       </c>
       <c r="H58" s="3">
-        <v>5485200</v>
+        <v>4356700</v>
       </c>
       <c r="I58" s="3">
-        <v>8952600</v>
+        <v>5243100</v>
       </c>
       <c r="J58" s="3">
+        <v>8557400</v>
+      </c>
+      <c r="K58" s="3">
         <v>6907900</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10734500</v>
+        <v>13506500</v>
       </c>
       <c r="E59" s="3">
-        <v>20298700</v>
+        <v>10260600</v>
       </c>
       <c r="F59" s="3">
-        <v>33196500</v>
+        <v>19402600</v>
       </c>
       <c r="G59" s="3">
-        <v>34714300</v>
+        <v>31731000</v>
       </c>
       <c r="H59" s="3">
-        <v>54948400</v>
+        <v>33181700</v>
       </c>
       <c r="I59" s="3">
-        <v>90579400</v>
+        <v>52522600</v>
       </c>
       <c r="J59" s="3">
+        <v>86580600</v>
+      </c>
+      <c r="K59" s="3">
         <v>47240000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16485000</v>
+        <v>17122700</v>
       </c>
       <c r="E60" s="3">
-        <v>27144400</v>
+        <v>15757200</v>
       </c>
       <c r="F60" s="3">
-        <v>39256900</v>
+        <v>25946000</v>
       </c>
       <c r="G60" s="3">
-        <v>41836900</v>
+        <v>37523800</v>
       </c>
       <c r="H60" s="3">
-        <v>38164100</v>
+        <v>39990000</v>
       </c>
       <c r="I60" s="3">
-        <v>42333500</v>
+        <v>36479300</v>
       </c>
       <c r="J60" s="3">
+        <v>40464600</v>
+      </c>
+      <c r="K60" s="3">
         <v>54147900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11646500</v>
+        <v>9338300</v>
       </c>
       <c r="E61" s="3">
-        <v>12248700</v>
+        <v>11132400</v>
       </c>
       <c r="F61" s="3">
-        <v>17553200</v>
+        <v>11708000</v>
       </c>
       <c r="G61" s="3">
-        <v>18527400</v>
+        <v>16778200</v>
       </c>
       <c r="H61" s="3">
-        <v>21188400</v>
+        <v>17709500</v>
       </c>
       <c r="I61" s="3">
-        <v>25549100</v>
+        <v>20253000</v>
       </c>
       <c r="J61" s="3">
+        <v>24421200</v>
+      </c>
+      <c r="K61" s="3">
         <v>28205500</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29669200</v>
+        <v>24932900</v>
       </c>
       <c r="E62" s="3">
-        <v>33866800</v>
+        <v>28359400</v>
       </c>
       <c r="F62" s="3">
-        <v>54251200</v>
+        <v>32371700</v>
       </c>
       <c r="G62" s="3">
-        <v>55815800</v>
+        <v>51856100</v>
       </c>
       <c r="H62" s="3">
-        <v>89933800</v>
+        <v>53351700</v>
       </c>
       <c r="I62" s="3">
-        <v>124464000</v>
+        <v>85963500</v>
       </c>
       <c r="J62" s="3">
+        <v>118969000</v>
+      </c>
+      <c r="K62" s="3">
         <v>50591200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2251,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2281,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,36 +2311,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>60971200</v>
+        <v>54490600</v>
       </c>
       <c r="E66" s="3">
-        <v>76008900</v>
+        <v>58279500</v>
       </c>
       <c r="F66" s="3">
-        <v>114170000</v>
+        <v>72653300</v>
       </c>
       <c r="G66" s="3">
-        <v>118678000</v>
+        <v>109129000</v>
       </c>
       <c r="H66" s="3">
-        <v>115746000</v>
+        <v>113439000</v>
       </c>
       <c r="I66" s="3">
-        <v>125625000</v>
+        <v>110636000</v>
       </c>
       <c r="J66" s="3">
+        <v>120079000</v>
+      </c>
+      <c r="K66" s="3">
         <v>137494000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2358,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2385,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2415,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2445,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,36 +2475,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6232900</v>
+        <v>-2761200</v>
       </c>
       <c r="E72" s="3">
-        <v>828700</v>
+        <v>-5107300</v>
       </c>
       <c r="F72" s="3">
-        <v>25796800</v>
+        <v>-9531300</v>
       </c>
       <c r="G72" s="3">
-        <v>35119200</v>
+        <v>10568000</v>
       </c>
       <c r="H72" s="3">
-        <v>43476700</v>
+        <v>18896600</v>
       </c>
       <c r="I72" s="3">
-        <v>44279600</v>
+        <v>26149100</v>
       </c>
       <c r="J72" s="3">
+        <v>26908700</v>
+      </c>
+      <c r="K72" s="3">
         <v>45118900</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2535,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2565,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,36 +2595,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4703500</v>
+        <v>6460400</v>
       </c>
       <c r="E76" s="3">
-        <v>-1238400</v>
+        <v>4495800</v>
       </c>
       <c r="F76" s="3">
-        <v>19284500</v>
+        <v>-1183700</v>
       </c>
       <c r="G76" s="3">
-        <v>28858100</v>
+        <v>18433200</v>
       </c>
       <c r="H76" s="3">
-        <v>39584400</v>
+        <v>27584100</v>
       </c>
       <c r="I76" s="3">
-        <v>41390900</v>
+        <v>37836900</v>
       </c>
       <c r="J76" s="3">
+        <v>39563600</v>
+      </c>
+      <c r="K76" s="3">
         <v>41948400</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,68 +2655,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4607200</v>
+        <v>3616200</v>
       </c>
       <c r="E81" s="3">
-        <v>-9918700</v>
+        <v>4403800</v>
       </c>
       <c r="F81" s="3">
-        <v>-8215500</v>
+        <v>-9480800</v>
       </c>
       <c r="G81" s="3">
-        <v>-3709200</v>
+        <v>-7852800</v>
       </c>
       <c r="H81" s="3">
-        <v>2454400</v>
+        <v>-3545500</v>
       </c>
       <c r="I81" s="3">
-        <v>2569500</v>
+        <v>2346100</v>
       </c>
       <c r="J81" s="3">
+        <v>2456000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2604700</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,35 +2737,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3250300</v>
+        <v>1767100</v>
       </c>
       <c r="E83" s="3">
-        <v>4487500</v>
+        <v>1907400</v>
       </c>
       <c r="F83" s="3">
-        <v>6654300</v>
+        <v>4289400</v>
       </c>
       <c r="G83" s="3">
-        <v>10239100</v>
+        <v>6360600</v>
       </c>
       <c r="H83" s="3">
-        <v>6109700</v>
+        <v>9787100</v>
       </c>
       <c r="I83" s="3">
-        <v>5960600</v>
+        <v>5840000</v>
       </c>
       <c r="J83" s="3">
+        <v>5697500</v>
+      </c>
+      <c r="K83" s="3">
         <v>8311700</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2794,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2824,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2854,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2884,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,36 +2914,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3465100</v>
+        <v>3127000</v>
       </c>
       <c r="E89" s="3">
-        <v>6015800</v>
+        <v>-3413100</v>
       </c>
       <c r="F89" s="3">
-        <v>7253000</v>
+        <v>5750200</v>
       </c>
       <c r="G89" s="3">
-        <v>7603900</v>
+        <v>6932800</v>
       </c>
       <c r="H89" s="3">
-        <v>7569900</v>
+        <v>7268300</v>
       </c>
       <c r="I89" s="3">
-        <v>10338900</v>
+        <v>7235700</v>
       </c>
       <c r="J89" s="3">
+        <v>9882500</v>
+      </c>
+      <c r="K89" s="3">
         <v>7758900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,35 +2961,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3610600</v>
+        <v>-2558100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3562500</v>
+        <v>-2301200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3500300</v>
+        <v>-3405200</v>
       </c>
       <c r="G91" s="3">
-        <v>-4691700</v>
+        <v>-3345800</v>
       </c>
       <c r="H91" s="3">
-        <v>-5258700</v>
+        <v>-4484600</v>
       </c>
       <c r="I91" s="3">
-        <v>-7487700</v>
+        <v>-5026500</v>
       </c>
       <c r="J91" s="3">
+        <v>-7157200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7296400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +3018,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,36 +3048,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-459000</v>
+        <v>1134300</v>
       </c>
       <c r="E94" s="3">
-        <v>-5124900</v>
+        <v>-438700</v>
       </c>
       <c r="F94" s="3">
-        <v>-336900</v>
+        <v>-4898600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3797300</v>
+        <v>-322000</v>
       </c>
       <c r="H94" s="3">
-        <v>-800500</v>
+        <v>-3629600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3542600</v>
+        <v>-765200</v>
       </c>
       <c r="J94" s="3">
+        <v>-3386200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3581300</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,35 +3095,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-405000</v>
+        <v>-729300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1145600</v>
+        <v>-387100</v>
       </c>
       <c r="F96" s="3">
-        <v>-828700</v>
+        <v>-1095100</v>
       </c>
       <c r="G96" s="3">
-        <v>-986000</v>
+        <v>-792100</v>
       </c>
       <c r="H96" s="3">
-        <v>-2461500</v>
+        <v>-942500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2236100</v>
+        <v>-2352800</v>
       </c>
       <c r="J96" s="3">
+        <v>-2137400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3354700</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3152,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3182,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,88 +3212,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>633900</v>
+        <v>-2958700</v>
       </c>
       <c r="E100" s="3">
-        <v>-338100</v>
+        <v>605900</v>
       </c>
       <c r="F100" s="3">
-        <v>-4528600</v>
+        <v>-323100</v>
       </c>
       <c r="G100" s="3">
-        <v>-5412400</v>
+        <v>-4328600</v>
       </c>
       <c r="H100" s="3">
-        <v>-4685800</v>
+        <v>-5173500</v>
       </c>
       <c r="I100" s="3">
-        <v>-8038300</v>
+        <v>-4479000</v>
       </c>
       <c r="J100" s="3">
+        <v>-7683400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6849200</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9400</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-102100</v>
+        <v>-9000</v>
       </c>
       <c r="F101" s="3">
-        <v>-70400</v>
+        <v>-97600</v>
       </c>
       <c r="G101" s="3">
-        <v>52800</v>
+        <v>-67300</v>
       </c>
       <c r="H101" s="3">
-        <v>-69300</v>
+        <v>50500</v>
       </c>
       <c r="I101" s="3">
-        <v>30500</v>
+        <v>-66200</v>
       </c>
       <c r="J101" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-14100</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3299600</v>
+        <v>1302600</v>
       </c>
       <c r="E102" s="3">
-        <v>450700</v>
+        <v>-3254900</v>
       </c>
       <c r="F102" s="3">
-        <v>2317100</v>
+        <v>430800</v>
       </c>
       <c r="G102" s="3">
-        <v>-1553000</v>
+        <v>2214800</v>
       </c>
       <c r="H102" s="3">
-        <v>2014300</v>
+        <v>-1484400</v>
       </c>
       <c r="I102" s="3">
-        <v>-1211400</v>
+        <v>1925300</v>
       </c>
       <c r="J102" s="3">
+        <v>-1157900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2685700</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/EONGY_YR_FIN.xlsx
+++ b/Financials/Yearly/EONGY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B7589B-4D47-42A6-A4A7-61174177C503}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="EONGY" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,34 +654,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -746,97 +711,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>33171600</v>
+        <v>32462400</v>
       </c>
       <c r="E8" s="3">
-        <v>41846900</v>
+        <v>40952100</v>
       </c>
       <c r="F8" s="3">
-        <v>42829700</v>
+        <v>41914000</v>
       </c>
       <c r="G8" s="3">
-        <v>47859600</v>
+        <v>46836300</v>
       </c>
       <c r="H8" s="3">
-        <v>126891500</v>
+        <v>124178300</v>
       </c>
       <c r="I8" s="3">
-        <v>134288700</v>
+        <v>131417400</v>
       </c>
       <c r="J8" s="3">
-        <v>148207000</v>
+        <v>145038100</v>
       </c>
       <c r="K8" s="3">
         <v>132586500</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25135900</v>
+        <v>24598500</v>
       </c>
       <c r="E9" s="3">
-        <v>33035900</v>
+        <v>32329500</v>
       </c>
       <c r="F9" s="3">
-        <v>35665800</v>
+        <v>34903200</v>
       </c>
       <c r="G9" s="3">
-        <v>36653200</v>
+        <v>35869500</v>
       </c>
       <c r="H9" s="3">
-        <v>111786100</v>
+        <v>109395900</v>
       </c>
       <c r="I9" s="3">
-        <v>118231900</v>
+        <v>115703900</v>
       </c>
       <c r="J9" s="3">
-        <v>128852700</v>
+        <v>126097600</v>
       </c>
       <c r="K9" s="3">
         <v>114239900</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8035700</v>
+        <v>7863900</v>
       </c>
       <c r="E10" s="3">
-        <v>8811000</v>
+        <v>8622600</v>
       </c>
       <c r="F10" s="3">
-        <v>7163900</v>
+        <v>7010700</v>
       </c>
       <c r="G10" s="3">
-        <v>11206400</v>
+        <v>10966800</v>
       </c>
       <c r="H10" s="3">
-        <v>15105400</v>
+        <v>14782400</v>
       </c>
       <c r="I10" s="3">
-        <v>16056800</v>
+        <v>15713500</v>
       </c>
       <c r="J10" s="3">
-        <v>19354300</v>
+        <v>18940500</v>
       </c>
       <c r="K10" s="3">
         <v>18346700</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,7 +815,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,20 +832,20 @@
         <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>55000</v>
+        <v>53800</v>
       </c>
       <c r="I12" s="3">
-        <v>79700</v>
+        <v>78000</v>
       </c>
       <c r="J12" s="3">
-        <v>49400</v>
+        <v>48300</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,67 +875,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>33700</v>
+        <v>32900</v>
       </c>
       <c r="E14" s="3">
-        <v>71800</v>
+        <v>70300</v>
       </c>
       <c r="F14" s="3">
-        <v>106600</v>
+        <v>104300</v>
       </c>
       <c r="G14" s="3">
-        <v>77400</v>
+        <v>75800</v>
       </c>
       <c r="H14" s="3">
-        <v>102100</v>
+        <v>99900</v>
       </c>
       <c r="I14" s="3">
-        <v>98700</v>
+        <v>96600</v>
       </c>
       <c r="J14" s="3">
-        <v>-320900</v>
+        <v>-314000</v>
       </c>
       <c r="K14" s="3">
         <v>192500</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1767100</v>
+        <v>1729400</v>
       </c>
       <c r="E15" s="3">
-        <v>1907400</v>
+        <v>1866600</v>
       </c>
       <c r="F15" s="3">
-        <v>4289400</v>
+        <v>4197700</v>
       </c>
       <c r="G15" s="3">
-        <v>6360600</v>
+        <v>6224600</v>
       </c>
       <c r="H15" s="3">
-        <v>9787100</v>
+        <v>9577900</v>
       </c>
       <c r="I15" s="3">
-        <v>5840000</v>
+        <v>5715100</v>
       </c>
       <c r="J15" s="3">
-        <v>5697500</v>
+        <v>5575600</v>
       </c>
       <c r="K15" s="3">
         <v>8311700</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -981,67 +946,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>28770100</v>
+        <v>28154900</v>
       </c>
       <c r="E17" s="3">
-        <v>36385000</v>
+        <v>35607000</v>
       </c>
       <c r="F17" s="3">
-        <v>43397500</v>
+        <v>42469500</v>
       </c>
       <c r="G17" s="3">
-        <v>47950500</v>
+        <v>46925200</v>
       </c>
       <c r="H17" s="3">
-        <v>127670100</v>
+        <v>124940300</v>
       </c>
       <c r="I17" s="3">
-        <v>128697900</v>
+        <v>125946100</v>
       </c>
       <c r="J17" s="3">
-        <v>143048100</v>
+        <v>139989500</v>
       </c>
       <c r="K17" s="3">
         <v>133695800</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4401600</v>
+        <v>4307500</v>
       </c>
       <c r="E18" s="3">
-        <v>5461800</v>
+        <v>5345100</v>
       </c>
       <c r="F18" s="3">
-        <v>-567700</v>
+        <v>-555600</v>
       </c>
       <c r="G18" s="3">
-        <v>-90900</v>
+        <v>-88900</v>
       </c>
       <c r="H18" s="3">
-        <v>-778700</v>
+        <v>-762000</v>
       </c>
       <c r="I18" s="3">
-        <v>5590900</v>
+        <v>5471300</v>
       </c>
       <c r="J18" s="3">
-        <v>5158900</v>
+        <v>5048600</v>
       </c>
       <c r="K18" s="3">
         <v>-1109300</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1055,157 +1020,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-51600</v>
+        <v>-50500</v>
       </c>
       <c r="E20" s="3">
-        <v>908800</v>
+        <v>889400</v>
       </c>
       <c r="F20" s="3">
-        <v>-774200</v>
+        <v>-757600</v>
       </c>
       <c r="G20" s="3">
-        <v>-617100</v>
+        <v>-603900</v>
       </c>
       <c r="H20" s="3">
-        <v>-711300</v>
+        <v>-696100</v>
       </c>
       <c r="I20" s="3">
-        <v>-825800</v>
+        <v>-808100</v>
       </c>
       <c r="J20" s="3">
-        <v>2199100</v>
+        <v>2152100</v>
       </c>
       <c r="K20" s="3">
         <v>805200</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6121300</v>
+        <v>5989000</v>
       </c>
       <c r="E21" s="3">
-        <v>8282600</v>
+        <v>8103900</v>
       </c>
       <c r="F21" s="3">
-        <v>2957800</v>
+        <v>2890900</v>
       </c>
       <c r="G21" s="3">
-        <v>5667900</v>
+        <v>5541400</v>
       </c>
       <c r="H21" s="3">
-        <v>8320700</v>
+        <v>8134500</v>
       </c>
       <c r="I21" s="3">
-        <v>10619100</v>
+        <v>10387100</v>
       </c>
       <c r="J21" s="3">
-        <v>13069200</v>
+        <v>12785000</v>
       </c>
       <c r="K21" s="3">
         <v>8013400</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>665300</v>
+        <v>651100</v>
       </c>
       <c r="E22" s="3">
-        <v>805600</v>
+        <v>788400</v>
       </c>
       <c r="F22" s="3">
-        <v>593500</v>
+        <v>580800</v>
       </c>
       <c r="G22" s="3">
-        <v>966000</v>
+        <v>945400</v>
       </c>
       <c r="H22" s="3">
-        <v>1200500</v>
+        <v>1174900</v>
       </c>
       <c r="I22" s="3">
-        <v>1310500</v>
+        <v>1282500</v>
       </c>
       <c r="J22" s="3">
-        <v>3684600</v>
+        <v>3605800</v>
       </c>
       <c r="K22" s="3">
         <v>3112900</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3684600</v>
+        <v>3605800</v>
       </c>
       <c r="E23" s="3">
-        <v>5565100</v>
+        <v>5446100</v>
       </c>
       <c r="F23" s="3">
-        <v>-1935400</v>
+        <v>-1894100</v>
       </c>
       <c r="G23" s="3">
-        <v>-1674000</v>
+        <v>-1638200</v>
       </c>
       <c r="H23" s="3">
-        <v>-2690500</v>
+        <v>-2633000</v>
       </c>
       <c r="I23" s="3">
-        <v>3454600</v>
+        <v>3380700</v>
       </c>
       <c r="J23" s="3">
-        <v>3673400</v>
+        <v>3594900</v>
       </c>
       <c r="K23" s="3">
         <v>-3417000</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51600</v>
+        <v>50500</v>
       </c>
       <c r="E24" s="3">
-        <v>901000</v>
+        <v>881700</v>
       </c>
       <c r="F24" s="3">
-        <v>493700</v>
+        <v>483100</v>
       </c>
       <c r="G24" s="3">
-        <v>816800</v>
+        <v>799300</v>
       </c>
       <c r="H24" s="3">
-        <v>639500</v>
+        <v>625900</v>
       </c>
       <c r="I24" s="3">
-        <v>805600</v>
+        <v>788400</v>
       </c>
       <c r="J24" s="3">
-        <v>783100</v>
+        <v>766400</v>
       </c>
       <c r="K24" s="3">
         <v>-1216100</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,67 +1200,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3633000</v>
+        <v>3555300</v>
       </c>
       <c r="E26" s="3">
-        <v>4664100</v>
+        <v>4564400</v>
       </c>
       <c r="F26" s="3">
-        <v>-2429100</v>
+        <v>-2377200</v>
       </c>
       <c r="G26" s="3">
-        <v>-2490800</v>
+        <v>-2437600</v>
       </c>
       <c r="H26" s="3">
-        <v>-3330100</v>
+        <v>-3258900</v>
       </c>
       <c r="I26" s="3">
-        <v>2649000</v>
+        <v>2592400</v>
       </c>
       <c r="J26" s="3">
-        <v>2890200</v>
+        <v>2828400</v>
       </c>
       <c r="K26" s="3">
         <v>-2200900</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3295300</v>
+        <v>3224800</v>
       </c>
       <c r="E27" s="3">
-        <v>4378000</v>
+        <v>4284400</v>
       </c>
       <c r="F27" s="3">
-        <v>6049800</v>
+        <v>5920400</v>
       </c>
       <c r="G27" s="3">
-        <v>-3188700</v>
+        <v>-3120500</v>
       </c>
       <c r="H27" s="3">
-        <v>-3363700</v>
+        <v>-3291800</v>
       </c>
       <c r="I27" s="3">
-        <v>2236100</v>
+        <v>2188300</v>
       </c>
       <c r="J27" s="3">
-        <v>2414500</v>
+        <v>2362900</v>
       </c>
       <c r="K27" s="3">
         <v>-2621100</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1325,37 +1290,37 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>320900</v>
+        <v>314000</v>
       </c>
       <c r="E29" s="3">
-        <v>25800</v>
+        <v>25300</v>
       </c>
       <c r="F29" s="3">
-        <v>-15530600</v>
+        <v>-15198500</v>
       </c>
       <c r="G29" s="3">
-        <v>-4664100</v>
+        <v>-4564400</v>
       </c>
       <c r="H29" s="3">
-        <v>-181800</v>
+        <v>-177900</v>
       </c>
       <c r="I29" s="3">
-        <v>110000</v>
+        <v>107600</v>
       </c>
       <c r="J29" s="3">
-        <v>41500</v>
+        <v>40600</v>
       </c>
       <c r="K29" s="3">
         <v>16400</v>
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1350,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1415,67 +1380,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>51600</v>
+        <v>50500</v>
       </c>
       <c r="E32" s="3">
-        <v>-908800</v>
+        <v>-889400</v>
       </c>
       <c r="F32" s="3">
-        <v>774200</v>
+        <v>757600</v>
       </c>
       <c r="G32" s="3">
-        <v>617100</v>
+        <v>603900</v>
       </c>
       <c r="H32" s="3">
-        <v>711300</v>
+        <v>696100</v>
       </c>
       <c r="I32" s="3">
-        <v>825800</v>
+        <v>808100</v>
       </c>
       <c r="J32" s="3">
-        <v>-2199100</v>
+        <v>-2152100</v>
       </c>
       <c r="K32" s="3">
         <v>-805200</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3616200</v>
+        <v>3538900</v>
       </c>
       <c r="E33" s="3">
-        <v>4403800</v>
+        <v>4309700</v>
       </c>
       <c r="F33" s="3">
-        <v>-9480800</v>
+        <v>-9278100</v>
       </c>
       <c r="G33" s="3">
-        <v>-7852800</v>
+        <v>-7684900</v>
       </c>
       <c r="H33" s="3">
-        <v>-3545500</v>
+        <v>-3469700</v>
       </c>
       <c r="I33" s="3">
-        <v>2346100</v>
+        <v>2295900</v>
       </c>
       <c r="J33" s="3">
-        <v>2456000</v>
+        <v>2403500</v>
       </c>
       <c r="K33" s="3">
         <v>-2604700</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1505,42 +1470,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3616200</v>
+        <v>3538900</v>
       </c>
       <c r="E35" s="3">
-        <v>4403800</v>
+        <v>4309700</v>
       </c>
       <c r="F35" s="3">
-        <v>-9480800</v>
+        <v>-9278100</v>
       </c>
       <c r="G35" s="3">
-        <v>-7852800</v>
+        <v>-7684900</v>
       </c>
       <c r="H35" s="3">
-        <v>-3545500</v>
+        <v>-3469700</v>
       </c>
       <c r="I35" s="3">
-        <v>2346100</v>
+        <v>2295900</v>
       </c>
       <c r="J35" s="3">
-        <v>2456000</v>
+        <v>2403500</v>
       </c>
       <c r="K35" s="3">
         <v>-2604700</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1570,7 +1535,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1584,7 +1549,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1598,277 +1563,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4402700</v>
+        <v>4308600</v>
       </c>
       <c r="E41" s="3">
-        <v>3038300</v>
+        <v>2973400</v>
       </c>
       <c r="F41" s="3">
-        <v>6254000</v>
+        <v>6120300</v>
       </c>
       <c r="G41" s="3">
-        <v>5822000</v>
+        <v>5697500</v>
       </c>
       <c r="H41" s="3">
-        <v>3580300</v>
+        <v>3503700</v>
       </c>
       <c r="I41" s="3">
-        <v>5079200</v>
+        <v>4970600</v>
       </c>
       <c r="J41" s="3">
-        <v>3159500</v>
+        <v>3092000</v>
       </c>
       <c r="K41" s="3">
         <v>4521500</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>868400</v>
+        <v>849900</v>
       </c>
       <c r="E42" s="3">
-        <v>751700</v>
+        <v>735700</v>
       </c>
       <c r="F42" s="3">
-        <v>2408900</v>
+        <v>2357400</v>
       </c>
       <c r="G42" s="3">
-        <v>2331500</v>
+        <v>2281600</v>
       </c>
       <c r="H42" s="3">
-        <v>2033000</v>
+        <v>1989600</v>
       </c>
       <c r="I42" s="3">
-        <v>2971000</v>
+        <v>2907500</v>
       </c>
       <c r="J42" s="3">
-        <v>7923500</v>
+        <v>7754100</v>
       </c>
       <c r="K42" s="3">
         <v>3614200</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4950200</v>
+        <v>4844400</v>
       </c>
       <c r="E43" s="3">
-        <v>5193700</v>
+        <v>5082600</v>
       </c>
       <c r="F43" s="3">
-        <v>9012900</v>
+        <v>8820200</v>
       </c>
       <c r="G43" s="3">
-        <v>31588500</v>
+        <v>30913100</v>
       </c>
       <c r="H43" s="3">
-        <v>30778400</v>
+        <v>30120300</v>
       </c>
       <c r="I43" s="3">
-        <v>51446600</v>
+        <v>50346600</v>
       </c>
       <c r="J43" s="3">
-        <v>85039000</v>
+        <v>83220700</v>
       </c>
       <c r="K43" s="3">
         <v>40375500</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>767400</v>
+        <v>751000</v>
       </c>
       <c r="E44" s="3">
-        <v>890900</v>
+        <v>871800</v>
       </c>
       <c r="F44" s="3">
-        <v>880800</v>
+        <v>861900</v>
       </c>
       <c r="G44" s="3">
-        <v>2856600</v>
+        <v>2795500</v>
       </c>
       <c r="H44" s="3">
-        <v>3765400</v>
+        <v>3684900</v>
       </c>
       <c r="I44" s="3">
-        <v>9305800</v>
+        <v>9106800</v>
       </c>
       <c r="J44" s="3">
-        <v>10624100</v>
+        <v>10397000</v>
       </c>
       <c r="K44" s="3">
         <v>5667200</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15311800</v>
+        <v>14984400</v>
       </c>
       <c r="E45" s="3">
-        <v>7837100</v>
+        <v>7669500</v>
       </c>
       <c r="F45" s="3">
-        <v>969400</v>
+        <v>948700</v>
       </c>
       <c r="G45" s="3">
-        <v>2371900</v>
+        <v>2321200</v>
       </c>
       <c r="H45" s="3">
-        <v>7667700</v>
+        <v>7503700</v>
       </c>
       <c r="I45" s="3">
-        <v>1873700</v>
+        <v>1833700</v>
       </c>
       <c r="J45" s="3">
-        <v>10626400</v>
+        <v>10399200</v>
       </c>
       <c r="K45" s="3">
         <v>5276300</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26300600</v>
+        <v>25738200</v>
       </c>
       <c r="E46" s="3">
-        <v>17711700</v>
+        <v>17333000</v>
       </c>
       <c r="F46" s="3">
-        <v>19526000</v>
+        <v>19108500</v>
       </c>
       <c r="G46" s="3">
-        <v>44970500</v>
+        <v>44008900</v>
       </c>
       <c r="H46" s="3">
-        <v>47824800</v>
+        <v>46802300</v>
       </c>
       <c r="I46" s="3">
-        <v>41233100</v>
+        <v>40351500</v>
       </c>
       <c r="J46" s="3">
-        <v>50399800</v>
+        <v>49322200</v>
       </c>
       <c r="K46" s="3">
         <v>59454700</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6673600</v>
+        <v>6530900</v>
       </c>
       <c r="E47" s="3">
-        <v>8459800</v>
+        <v>8278900</v>
       </c>
       <c r="F47" s="3">
-        <v>15507000</v>
+        <v>15175500</v>
       </c>
       <c r="G47" s="3">
-        <v>22005600</v>
+        <v>21535100</v>
       </c>
       <c r="H47" s="3">
-        <v>21234800</v>
+        <v>20780700</v>
       </c>
       <c r="I47" s="3">
-        <v>21158500</v>
+        <v>20706100</v>
       </c>
       <c r="J47" s="3">
-        <v>31260900</v>
+        <v>30592500</v>
       </c>
       <c r="K47" s="3">
         <v>23176900</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20259800</v>
+        <v>19826600</v>
       </c>
       <c r="E48" s="3">
-        <v>27787200</v>
+        <v>27193100</v>
       </c>
       <c r="F48" s="3">
-        <v>28321300</v>
+        <v>27715700</v>
       </c>
       <c r="G48" s="3">
-        <v>43754200</v>
+        <v>42818700</v>
       </c>
       <c r="H48" s="3">
-        <v>46307900</v>
+        <v>45317800</v>
       </c>
       <c r="I48" s="3">
-        <v>112385000</v>
+        <v>109982000</v>
       </c>
       <c r="J48" s="3">
-        <v>5944300</v>
+        <v>5817200</v>
       </c>
       <c r="K48" s="3">
         <v>65579600</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4730300</v>
+        <v>4629200</v>
       </c>
       <c r="E49" s="3">
-        <v>6260700</v>
+        <v>6126800</v>
       </c>
       <c r="F49" s="3">
-        <v>6498600</v>
+        <v>6359600</v>
       </c>
       <c r="G49" s="3">
-        <v>12236400</v>
+        <v>11974800</v>
       </c>
       <c r="H49" s="3">
-        <v>18730500</v>
+        <v>18330000</v>
       </c>
       <c r="I49" s="3">
-        <v>43340200</v>
+        <v>42413500</v>
       </c>
       <c r="J49" s="3">
-        <v>58310900</v>
+        <v>57064200</v>
       </c>
       <c r="K49" s="3">
         <v>25184100</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1898,7 +1863,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1928,37 +1893,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2986700</v>
+        <v>2922900</v>
       </c>
       <c r="E52" s="3">
-        <v>2555900</v>
+        <v>2501200</v>
       </c>
       <c r="F52" s="3">
-        <v>1616800</v>
+        <v>1582200</v>
       </c>
       <c r="G52" s="3">
-        <v>4595700</v>
+        <v>4497400</v>
       </c>
       <c r="H52" s="3">
-        <v>6924900</v>
+        <v>6776900</v>
       </c>
       <c r="I52" s="3">
-        <v>8218600</v>
+        <v>8042900</v>
       </c>
       <c r="J52" s="3">
-        <v>6150700</v>
+        <v>6019200</v>
       </c>
       <c r="K52" s="3">
         <v>6047500</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1988,37 +1953,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60951000</v>
+        <v>59647800</v>
       </c>
       <c r="E54" s="3">
-        <v>62775300</v>
+        <v>61433100</v>
       </c>
       <c r="F54" s="3">
-        <v>71469600</v>
+        <v>69941500</v>
       </c>
       <c r="G54" s="3">
-        <v>127562000</v>
+        <v>124835000</v>
       </c>
       <c r="H54" s="3">
-        <v>141023000</v>
+        <v>138008000</v>
       </c>
       <c r="I54" s="3">
-        <v>148473000</v>
+        <v>145298000</v>
       </c>
       <c r="J54" s="3">
-        <v>159642000</v>
+        <v>156229000</v>
       </c>
       <c r="K54" s="3">
         <v>179443000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2032,7 +1997,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2046,187 +2011,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1862500</v>
+        <v>1822700</v>
       </c>
       <c r="E57" s="3">
-        <v>2019600</v>
+        <v>1976400</v>
       </c>
       <c r="F57" s="3">
-        <v>2288900</v>
+        <v>2239900</v>
       </c>
       <c r="G57" s="3">
-        <v>2664700</v>
+        <v>2607800</v>
       </c>
       <c r="H57" s="3">
-        <v>2451500</v>
+        <v>2399100</v>
       </c>
       <c r="I57" s="3">
-        <v>2788100</v>
+        <v>2728500</v>
       </c>
       <c r="J57" s="3">
-        <v>6124900</v>
+        <v>5994000</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1753700</v>
+        <v>1716200</v>
       </c>
       <c r="E58" s="3">
-        <v>3477000</v>
+        <v>3402700</v>
       </c>
       <c r="F58" s="3">
-        <v>4254600</v>
+        <v>4163600</v>
       </c>
       <c r="G58" s="3">
-        <v>3128100</v>
+        <v>3061200</v>
       </c>
       <c r="H58" s="3">
-        <v>4356700</v>
+        <v>4263500</v>
       </c>
       <c r="I58" s="3">
-        <v>5243100</v>
+        <v>5131000</v>
       </c>
       <c r="J58" s="3">
-        <v>8557400</v>
+        <v>8374400</v>
       </c>
       <c r="K58" s="3">
         <v>6907900</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13506500</v>
+        <v>13217700</v>
       </c>
       <c r="E59" s="3">
-        <v>10260600</v>
+        <v>10041200</v>
       </c>
       <c r="F59" s="3">
-        <v>19402600</v>
+        <v>18987700</v>
       </c>
       <c r="G59" s="3">
-        <v>31731000</v>
+        <v>31052500</v>
       </c>
       <c r="H59" s="3">
-        <v>33181700</v>
+        <v>32472300</v>
       </c>
       <c r="I59" s="3">
-        <v>52522600</v>
+        <v>51399600</v>
       </c>
       <c r="J59" s="3">
-        <v>86580600</v>
+        <v>84729400</v>
       </c>
       <c r="K59" s="3">
         <v>47240000</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17122700</v>
+        <v>16756600</v>
       </c>
       <c r="E60" s="3">
-        <v>15757200</v>
+        <v>15420300</v>
       </c>
       <c r="F60" s="3">
-        <v>25946000</v>
+        <v>25391300</v>
       </c>
       <c r="G60" s="3">
-        <v>37523800</v>
+        <v>36721500</v>
       </c>
       <c r="H60" s="3">
-        <v>39990000</v>
+        <v>39134900</v>
       </c>
       <c r="I60" s="3">
-        <v>36479300</v>
+        <v>35699300</v>
       </c>
       <c r="J60" s="3">
-        <v>40464600</v>
+        <v>39599400</v>
       </c>
       <c r="K60" s="3">
         <v>54147900</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9338300</v>
+        <v>9138700</v>
       </c>
       <c r="E61" s="3">
-        <v>11132400</v>
+        <v>10894400</v>
       </c>
       <c r="F61" s="3">
-        <v>11708000</v>
+        <v>11457600</v>
       </c>
       <c r="G61" s="3">
-        <v>16778200</v>
+        <v>16419500</v>
       </c>
       <c r="H61" s="3">
-        <v>17709500</v>
+        <v>17330800</v>
       </c>
       <c r="I61" s="3">
-        <v>20253000</v>
+        <v>19820000</v>
       </c>
       <c r="J61" s="3">
-        <v>24421200</v>
+        <v>23899100</v>
       </c>
       <c r="K61" s="3">
         <v>28205500</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24932900</v>
+        <v>24399800</v>
       </c>
       <c r="E62" s="3">
-        <v>28359400</v>
+        <v>27753000</v>
       </c>
       <c r="F62" s="3">
-        <v>32371700</v>
+        <v>31679500</v>
       </c>
       <c r="G62" s="3">
-        <v>51856100</v>
+        <v>50747400</v>
       </c>
       <c r="H62" s="3">
-        <v>53351700</v>
+        <v>52211000</v>
       </c>
       <c r="I62" s="3">
-        <v>85963500</v>
+        <v>84125500</v>
       </c>
       <c r="J62" s="3">
-        <v>118969000</v>
+        <v>116425000</v>
       </c>
       <c r="K62" s="3">
         <v>50591200</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2256,7 +2221,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2286,7 +2251,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2316,37 +2281,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54490600</v>
+        <v>53325500</v>
       </c>
       <c r="E66" s="3">
-        <v>58279500</v>
+        <v>57033400</v>
       </c>
       <c r="F66" s="3">
-        <v>72653300</v>
+        <v>71099900</v>
       </c>
       <c r="G66" s="3">
-        <v>109129000</v>
+        <v>106796000</v>
       </c>
       <c r="H66" s="3">
-        <v>113439000</v>
+        <v>111013000</v>
       </c>
       <c r="I66" s="3">
-        <v>110636000</v>
+        <v>108271000</v>
       </c>
       <c r="J66" s="3">
-        <v>120079000</v>
+        <v>117511000</v>
       </c>
       <c r="K66" s="3">
         <v>137494000</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2360,7 +2325,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2390,7 +2355,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2420,7 +2385,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2450,7 +2415,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2480,37 +2445,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2761200</v>
+        <v>-2702200</v>
       </c>
       <c r="E72" s="3">
-        <v>-5107300</v>
+        <v>-4998100</v>
       </c>
       <c r="F72" s="3">
-        <v>-9531300</v>
+        <v>-9327500</v>
       </c>
       <c r="G72" s="3">
-        <v>10568000</v>
+        <v>10342100</v>
       </c>
       <c r="H72" s="3">
-        <v>18896600</v>
+        <v>18492500</v>
       </c>
       <c r="I72" s="3">
-        <v>26149100</v>
+        <v>25590000</v>
       </c>
       <c r="J72" s="3">
-        <v>26908700</v>
+        <v>26333300</v>
       </c>
       <c r="K72" s="3">
         <v>45118900</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2540,7 +2505,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2570,7 +2535,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2600,37 +2565,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6460400</v>
+        <v>6322300</v>
       </c>
       <c r="E76" s="3">
-        <v>4495800</v>
+        <v>4399700</v>
       </c>
       <c r="F76" s="3">
-        <v>-1183700</v>
+        <v>-1158400</v>
       </c>
       <c r="G76" s="3">
-        <v>18433200</v>
+        <v>18039000</v>
       </c>
       <c r="H76" s="3">
-        <v>27584100</v>
+        <v>26994300</v>
       </c>
       <c r="I76" s="3">
-        <v>37836900</v>
+        <v>37027900</v>
       </c>
       <c r="J76" s="3">
-        <v>39563600</v>
+        <v>38717700</v>
       </c>
       <c r="K76" s="3">
         <v>41948400</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2660,12 +2625,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2695,37 +2660,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3616200</v>
+        <v>3538900</v>
       </c>
       <c r="E81" s="3">
-        <v>4403800</v>
+        <v>4309700</v>
       </c>
       <c r="F81" s="3">
-        <v>-9480800</v>
+        <v>-9278100</v>
       </c>
       <c r="G81" s="3">
-        <v>-7852800</v>
+        <v>-7684900</v>
       </c>
       <c r="H81" s="3">
-        <v>-3545500</v>
+        <v>-3469700</v>
       </c>
       <c r="I81" s="3">
-        <v>2346100</v>
+        <v>2295900</v>
       </c>
       <c r="J81" s="3">
-        <v>2456000</v>
+        <v>2403500</v>
       </c>
       <c r="K81" s="3">
         <v>-2604700</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2739,37 +2704,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1767100</v>
+        <v>1729400</v>
       </c>
       <c r="E83" s="3">
-        <v>1907400</v>
+        <v>1866600</v>
       </c>
       <c r="F83" s="3">
-        <v>4289400</v>
+        <v>4197700</v>
       </c>
       <c r="G83" s="3">
-        <v>6360600</v>
+        <v>6224600</v>
       </c>
       <c r="H83" s="3">
-        <v>9787100</v>
+        <v>9577900</v>
       </c>
       <c r="I83" s="3">
-        <v>5840000</v>
+        <v>5715100</v>
       </c>
       <c r="J83" s="3">
-        <v>5697500</v>
+        <v>5575600</v>
       </c>
       <c r="K83" s="3">
         <v>8311700</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2799,7 +2764,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2829,7 +2794,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2859,7 +2824,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2889,7 +2854,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2919,37 +2884,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3127000</v>
+        <v>3060100</v>
       </c>
       <c r="E89" s="3">
-        <v>-3413100</v>
+        <v>-3340100</v>
       </c>
       <c r="F89" s="3">
-        <v>5750200</v>
+        <v>5627300</v>
       </c>
       <c r="G89" s="3">
-        <v>6932800</v>
+        <v>6784500</v>
       </c>
       <c r="H89" s="3">
-        <v>7268300</v>
+        <v>7112800</v>
       </c>
       <c r="I89" s="3">
-        <v>7235700</v>
+        <v>7081000</v>
       </c>
       <c r="J89" s="3">
-        <v>9882500</v>
+        <v>9671200</v>
       </c>
       <c r="K89" s="3">
         <v>7758900</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2963,37 +2928,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2558100</v>
+        <v>-2503400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2301200</v>
+        <v>-2252000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3405200</v>
+        <v>-3332400</v>
       </c>
       <c r="G91" s="3">
-        <v>-3345800</v>
+        <v>-3274200</v>
       </c>
       <c r="H91" s="3">
-        <v>-4484600</v>
+        <v>-4388700</v>
       </c>
       <c r="I91" s="3">
-        <v>-5026500</v>
+        <v>-4919000</v>
       </c>
       <c r="J91" s="3">
-        <v>-7157200</v>
+        <v>-7004100</v>
       </c>
       <c r="K91" s="3">
         <v>-7296400</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3023,7 +2988,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3053,37 +3018,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1134300</v>
+        <v>1110100</v>
       </c>
       <c r="E94" s="3">
-        <v>-438700</v>
+        <v>-429300</v>
       </c>
       <c r="F94" s="3">
-        <v>-4898600</v>
+        <v>-4793900</v>
       </c>
       <c r="G94" s="3">
-        <v>-322000</v>
+        <v>-315100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3629600</v>
+        <v>-3552000</v>
       </c>
       <c r="I94" s="3">
-        <v>-765200</v>
+        <v>-748800</v>
       </c>
       <c r="J94" s="3">
-        <v>-3386200</v>
+        <v>-3313800</v>
       </c>
       <c r="K94" s="3">
         <v>-3581300</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3097,37 +3062,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-729300</v>
+        <v>-713700</v>
       </c>
       <c r="E96" s="3">
-        <v>-387100</v>
+        <v>-378800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1095100</v>
+        <v>-1071600</v>
       </c>
       <c r="G96" s="3">
-        <v>-792100</v>
+        <v>-775200</v>
       </c>
       <c r="H96" s="3">
-        <v>-942500</v>
+        <v>-922300</v>
       </c>
       <c r="I96" s="3">
-        <v>-2352800</v>
+        <v>-2302500</v>
       </c>
       <c r="J96" s="3">
-        <v>-2137400</v>
+        <v>-2091700</v>
       </c>
       <c r="K96" s="3">
         <v>-3354700</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3157,7 +3122,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3187,7 +3152,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3217,37 +3182,37 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2958700</v>
+        <v>-2895400</v>
       </c>
       <c r="E100" s="3">
-        <v>605900</v>
+        <v>592900</v>
       </c>
       <c r="F100" s="3">
-        <v>-323100</v>
+        <v>-316200</v>
       </c>
       <c r="G100" s="3">
-        <v>-4328600</v>
+        <v>-4236100</v>
       </c>
       <c r="H100" s="3">
-        <v>-5173500</v>
+        <v>-5062900</v>
       </c>
       <c r="I100" s="3">
-        <v>-4479000</v>
+        <v>-4383200</v>
       </c>
       <c r="J100" s="3">
-        <v>-7683400</v>
+        <v>-7519100</v>
       </c>
       <c r="K100" s="3">
         <v>-6849200</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3255,52 +3220,52 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-9000</v>
+        <v>-8800</v>
       </c>
       <c r="F101" s="3">
-        <v>-97600</v>
+        <v>-95500</v>
       </c>
       <c r="G101" s="3">
-        <v>-67300</v>
+        <v>-65900</v>
       </c>
       <c r="H101" s="3">
-        <v>50500</v>
+        <v>49400</v>
       </c>
       <c r="I101" s="3">
-        <v>-66200</v>
+        <v>-64800</v>
       </c>
       <c r="J101" s="3">
-        <v>29200</v>
+        <v>28500</v>
       </c>
       <c r="K101" s="3">
         <v>-14100</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1302600</v>
+        <v>1274800</v>
       </c>
       <c r="E102" s="3">
-        <v>-3254900</v>
+        <v>-3185300</v>
       </c>
       <c r="F102" s="3">
-        <v>430800</v>
+        <v>421600</v>
       </c>
       <c r="G102" s="3">
-        <v>2214800</v>
+        <v>2167500</v>
       </c>
       <c r="H102" s="3">
-        <v>-1484400</v>
+        <v>-1452700</v>
       </c>
       <c r="I102" s="3">
-        <v>1925300</v>
+        <v>1884200</v>
       </c>
       <c r="J102" s="3">
-        <v>-1157900</v>
+        <v>-1133100</v>
       </c>
       <c r="K102" s="3">
         <v>-2685700</v>
